--- a/DCIT 23 - IT 1B/POINTS - IT 1B.xlsx
+++ b/DCIT 23 - IT 1B/POINTS - IT 1B.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\WORK\CvSU\2017-2018 Second Semester\DCIT 23 - IT 1B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\WORK\CvSU\2017-2018 Second Semester\Grading-Sheets-Second-Sem-2017-2018\DCIT 23 - IT 1B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8CB30A-7315-4CF2-A8ED-BF506656C94D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7250001-30D3-48FD-A6B5-C5269000F976}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="7185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="195">
   <si>
     <t>C</t>
   </si>
@@ -598,13 +598,22 @@
   </si>
   <si>
     <t>2011-01-043</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Excess</t>
+  </si>
+  <si>
+    <t>Items</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -924,7 +933,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1126,6 +1135,7 @@
     <xf numFmtId="0" fontId="1" fillId="21" borderId="4" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="60% - Accent1" xfId="2" builtinId="32"/>
@@ -1891,14 +1901,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN62"/>
+  <dimension ref="A1:AQ62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="AL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AL6" sqref="AL6"/>
+      <selection pane="topRight" activeCell="AN7" sqref="AN7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
@@ -1908,7 +1918,7 @@
     <col min="38" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" ht="15">
       <c r="A1" s="56" t="s">
         <v>50</v>
       </c>
@@ -1959,8 +1969,14 @@
       <c r="AL1" s="55"/>
       <c r="AM1" s="55"/>
       <c r="AN1" s="55"/>
-    </row>
-    <row r="2" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+      <c r="AO1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" ht="15">
       <c r="A2" s="13" t="s">
         <v>8</v>
       </c>
@@ -2079,8 +2095,17 @@
       <c r="AN2" s="20" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43">
       <c r="A3" s="2" t="s">
         <v>60</v>
       </c>
@@ -2143,9 +2168,22 @@
         <v>0</v>
       </c>
       <c r="AM3" s="35"/>
-      <c r="AN3" s="35"/>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN3" s="35">
+        <v>33</v>
+      </c>
+      <c r="AO3" s="70">
+        <f t="shared" ref="AO3:AO59" si="0">IF(AN3+AL3&gt;AQ3,AQ3,AN3+AL3)</f>
+        <v>33</v>
+      </c>
+      <c r="AP3" s="70">
+        <f t="shared" ref="AP3:AP59" si="1">IF(AN3+AL3&gt;AQ3,AL3+AN3-AQ3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43">
       <c r="A4" s="6" t="s">
         <v>63</v>
       </c>
@@ -2198,21 +2236,34 @@
         <v>90</v>
       </c>
       <c r="AJ4" s="35">
-        <f t="shared" ref="AJ4:AJ21" si="0">SUM(F4:AI4)</f>
+        <f t="shared" ref="AJ4:AJ21" si="2">SUM(F4:AI4)</f>
         <v>146</v>
       </c>
       <c r="AK4" s="35">
-        <f t="shared" ref="AK4:AK24" si="1">IF(AJ4&gt;100,AJ4-(AJ4-100),AJ4)</f>
+        <f t="shared" ref="AK4:AK24" si="3">IF(AJ4&gt;100,AJ4-(AJ4-100),AJ4)</f>
         <v>100</v>
       </c>
       <c r="AL4" s="35">
-        <f t="shared" ref="AL4:AL42" si="2">IF(AJ4&gt;100,(AJ4-100)/10,0)</f>
+        <f t="shared" ref="AL4:AL42" si="4">IF(AJ4&gt;100,(AJ4-100)/10,0)</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN4" s="35">
+        <v>48</v>
+      </c>
+      <c r="AO4" s="70">
+        <f t="shared" si="0"/>
+        <v>52.6</v>
+      </c>
+      <c r="AP4" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43">
       <c r="A5" s="11" t="s">
         <v>66</v>
       </c>
@@ -2267,21 +2318,34 @@
         <v>70</v>
       </c>
       <c r="AJ5" s="35">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="AK5" s="35">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="AL5" s="35">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="AM5" s="35"/>
+      <c r="AN5" s="35">
+        <v>68</v>
+      </c>
+      <c r="AO5" s="70">
         <f t="shared" si="0"/>
-        <v>190</v>
-      </c>
-      <c r="AK5" s="35">
+        <v>70</v>
+      </c>
+      <c r="AP5" s="70">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="AL5" s="35">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="AM5" s="35"/>
-      <c r="AN5" s="35"/>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43">
       <c r="A6" s="6" t="s">
         <v>69</v>
       </c>
@@ -2334,21 +2398,34 @@
         <v>100</v>
       </c>
       <c r="AJ6" s="35">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+      <c r="AK6" s="35">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="AL6" s="35">
+        <f t="shared" si="4"/>
+        <v>5.9</v>
+      </c>
+      <c r="AM6" s="35"/>
+      <c r="AN6" s="35">
+        <v>39</v>
+      </c>
+      <c r="AO6" s="70">
         <f t="shared" si="0"/>
-        <v>159</v>
-      </c>
-      <c r="AK6" s="35">
+        <v>44.9</v>
+      </c>
+      <c r="AP6" s="70">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="AL6" s="35">
-        <f t="shared" si="2"/>
-        <v>5.9</v>
-      </c>
-      <c r="AM6" s="35"/>
-      <c r="AN6" s="35"/>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43">
       <c r="A7" s="6" t="s">
         <v>72</v>
       </c>
@@ -2395,21 +2472,32 @@
       <c r="AH7" s="33"/>
       <c r="AI7" s="33"/>
       <c r="AJ7" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AK7" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AL7" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM7" s="35"/>
       <c r="AN7" s="35"/>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO7" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP7" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43">
       <c r="A8" s="6" t="s">
         <v>75</v>
       </c>
@@ -2458,21 +2546,34 @@
         <v>70</v>
       </c>
       <c r="AJ8" s="35">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="AK8" s="35">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="AL8" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM8" s="35"/>
+      <c r="AN8" s="35">
+        <v>33</v>
+      </c>
+      <c r="AO8" s="70">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="AK8" s="35">
+        <v>33</v>
+      </c>
+      <c r="AP8" s="70">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="AL8" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM8" s="35"/>
-      <c r="AN8" s="35"/>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43">
       <c r="A9" s="6" t="s">
         <v>78</v>
       </c>
@@ -2521,21 +2622,34 @@
       <c r="AH9" s="33"/>
       <c r="AI9" s="33"/>
       <c r="AJ9" s="35">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="AK9" s="35">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="AL9" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM9" s="35"/>
+      <c r="AN9" s="35">
+        <v>41</v>
+      </c>
+      <c r="AO9" s="70">
         <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="AK9" s="35">
+        <v>41</v>
+      </c>
+      <c r="AP9" s="70">
         <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="AL9" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM9" s="35"/>
-      <c r="AN9" s="35"/>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43">
       <c r="A10" s="6" t="s">
         <v>81</v>
       </c>
@@ -2590,21 +2704,34 @@
         <v>70</v>
       </c>
       <c r="AJ10" s="35">
+        <f t="shared" si="2"/>
+        <v>179</v>
+      </c>
+      <c r="AK10" s="35">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="AL10" s="35">
+        <f t="shared" si="4"/>
+        <v>7.9</v>
+      </c>
+      <c r="AM10" s="35"/>
+      <c r="AN10" s="35">
+        <v>20</v>
+      </c>
+      <c r="AO10" s="70">
         <f t="shared" si="0"/>
-        <v>179</v>
-      </c>
-      <c r="AK10" s="35">
+        <v>27.9</v>
+      </c>
+      <c r="AP10" s="70">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="AL10" s="35">
-        <f t="shared" si="2"/>
-        <v>7.9</v>
-      </c>
-      <c r="AM10" s="35"/>
-      <c r="AN10" s="35"/>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43">
       <c r="A11" s="6" t="s">
         <v>184</v>
       </c>
@@ -2651,21 +2778,34 @@
       <c r="AH11" s="33"/>
       <c r="AI11" s="33"/>
       <c r="AJ11" s="35">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="AK11" s="35">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="AL11" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM11" s="35"/>
+      <c r="AN11" s="35">
+        <v>25</v>
+      </c>
+      <c r="AO11" s="70">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="AK11" s="35">
+        <v>25</v>
+      </c>
+      <c r="AP11" s="70">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="AL11" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM11" s="35"/>
-      <c r="AN11" s="35"/>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43">
       <c r="A12" s="6" t="s">
         <v>83</v>
       </c>
@@ -2714,21 +2854,34 @@
         <v>100</v>
       </c>
       <c r="AJ12" s="35">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="AK12" s="35">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="AL12" s="35">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AM12" s="35"/>
+      <c r="AN12" s="35">
+        <v>36</v>
+      </c>
+      <c r="AO12" s="70">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="AK12" s="35">
+        <v>39</v>
+      </c>
+      <c r="AP12" s="70">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="AL12" s="35">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="AM12" s="35"/>
-      <c r="AN12" s="35"/>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43">
       <c r="A13" s="6" t="s">
         <v>86</v>
       </c>
@@ -2777,21 +2930,32 @@
       <c r="AH13" s="33"/>
       <c r="AI13" s="33"/>
       <c r="AJ13" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="AK13" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AL13" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM13" s="35"/>
       <c r="AN13" s="35"/>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO13" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP13" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43">
       <c r="A14" s="6" t="s">
         <v>89</v>
       </c>
@@ -2834,21 +2998,32 @@
       <c r="AH14" s="33"/>
       <c r="AI14" s="33"/>
       <c r="AJ14" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK14" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL14" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM14" s="35"/>
       <c r="AN14" s="35"/>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO14" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP14" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43">
       <c r="A15" s="6" t="s">
         <v>92</v>
       </c>
@@ -2901,21 +3076,34 @@
         <v>90</v>
       </c>
       <c r="AJ15" s="35">
+        <f t="shared" si="2"/>
+        <v>166</v>
+      </c>
+      <c r="AK15" s="35">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="AL15" s="35">
+        <f t="shared" si="4"/>
+        <v>6.6</v>
+      </c>
+      <c r="AM15" s="35"/>
+      <c r="AN15" s="35">
+        <v>53</v>
+      </c>
+      <c r="AO15" s="70">
         <f t="shared" si="0"/>
-        <v>166</v>
-      </c>
-      <c r="AK15" s="35">
+        <v>59.6</v>
+      </c>
+      <c r="AP15" s="70">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="AL15" s="35">
-        <f t="shared" si="2"/>
-        <v>6.6</v>
-      </c>
-      <c r="AM15" s="35"/>
-      <c r="AN15" s="35"/>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43">
       <c r="A16" s="22" t="s">
         <v>180</v>
       </c>
@@ -2966,21 +3154,34 @@
         <v>100</v>
       </c>
       <c r="AJ16" s="35">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="AK16" s="35">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="AL16" s="35">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="AM16" s="35"/>
+      <c r="AN16" s="35">
+        <v>50</v>
+      </c>
+      <c r="AO16" s="70">
         <f t="shared" si="0"/>
-        <v>170</v>
-      </c>
-      <c r="AK16" s="35">
+        <v>57</v>
+      </c>
+      <c r="AP16" s="70">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="AL16" s="35">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="AM16" s="35"/>
-      <c r="AN16" s="35"/>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43">
       <c r="A17" s="6" t="s">
         <v>95</v>
       </c>
@@ -3035,21 +3236,34 @@
         <v>70</v>
       </c>
       <c r="AJ17" s="35">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+      <c r="AK17" s="35">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="AL17" s="35">
+        <f t="shared" si="4"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AM17" s="35"/>
+      <c r="AN17" s="35">
+        <v>51</v>
+      </c>
+      <c r="AO17" s="70">
         <f t="shared" si="0"/>
-        <v>182</v>
-      </c>
-      <c r="AK17" s="35">
+        <v>59.2</v>
+      </c>
+      <c r="AP17" s="70">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="AL17" s="35">
-        <f t="shared" si="2"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AM17" s="35"/>
-      <c r="AN17" s="35"/>
-    </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43">
       <c r="A18" s="6" t="s">
         <v>98</v>
       </c>
@@ -3102,21 +3316,34 @@
         <v>90</v>
       </c>
       <c r="AJ18" s="35">
+        <f t="shared" si="2"/>
+        <v>166</v>
+      </c>
+      <c r="AK18" s="35">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="AL18" s="35">
+        <f t="shared" si="4"/>
+        <v>6.6</v>
+      </c>
+      <c r="AM18" s="35"/>
+      <c r="AN18" s="35">
+        <v>45</v>
+      </c>
+      <c r="AO18" s="70">
         <f t="shared" si="0"/>
-        <v>166</v>
-      </c>
-      <c r="AK18" s="35">
+        <v>51.6</v>
+      </c>
+      <c r="AP18" s="70">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="AL18" s="35">
-        <f t="shared" si="2"/>
-        <v>6.6</v>
-      </c>
-      <c r="AM18" s="35"/>
-      <c r="AN18" s="35"/>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43">
       <c r="A19" s="6" t="s">
         <v>101</v>
       </c>
@@ -3169,21 +3396,34 @@
         <v>95</v>
       </c>
       <c r="AJ19" s="35">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="AK19" s="35">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="AL19" s="35">
+        <f t="shared" si="4"/>
+        <v>7.4</v>
+      </c>
+      <c r="AM19" s="35"/>
+      <c r="AN19" s="35">
+        <v>10</v>
+      </c>
+      <c r="AO19" s="70">
         <f t="shared" si="0"/>
-        <v>174</v>
-      </c>
-      <c r="AK19" s="35">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="AP19" s="70">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="AL19" s="35">
-        <f t="shared" si="2"/>
-        <v>7.4</v>
-      </c>
-      <c r="AM19" s="35"/>
-      <c r="AN19" s="35"/>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43">
       <c r="A20" s="6" t="s">
         <v>104</v>
       </c>
@@ -3232,21 +3472,34 @@
         <v>90</v>
       </c>
       <c r="AJ20" s="35">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="AK20" s="35">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="AL20" s="35">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AM20" s="35"/>
+      <c r="AN20" s="35">
+        <v>14</v>
+      </c>
+      <c r="AO20" s="70">
         <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="AK20" s="35">
+        <v>16</v>
+      </c>
+      <c r="AP20" s="70">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="AL20" s="35">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="AM20" s="35"/>
-      <c r="AN20" s="35"/>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43">
       <c r="A21" s="6" t="s">
         <v>107</v>
       </c>
@@ -3297,21 +3550,34 @@
       <c r="AH21" s="33"/>
       <c r="AI21" s="33"/>
       <c r="AJ21" s="35">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="AK21" s="35">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="AL21" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM21" s="35"/>
+      <c r="AN21" s="35">
+        <v>46</v>
+      </c>
+      <c r="AO21" s="70">
         <f t="shared" si="0"/>
-        <v>82</v>
-      </c>
-      <c r="AK21" s="35">
+        <v>46</v>
+      </c>
+      <c r="AP21" s="70">
         <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="AL21" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM21" s="35"/>
-      <c r="AN21" s="35"/>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43">
       <c r="A22" s="22" t="s">
         <v>191</v>
       </c>
@@ -3366,17 +3632,30 @@
         <v>160</v>
       </c>
       <c r="AK22" s="35">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="AL22" s="35">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="AM22" s="35"/>
+      <c r="AN22" s="35">
+        <v>46</v>
+      </c>
+      <c r="AO22" s="70">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="AP22" s="70">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="AL22" s="35">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="AM22" s="35"/>
-      <c r="AN22" s="35"/>
-    </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43">
       <c r="A23" s="6" t="s">
         <v>110</v>
       </c>
@@ -3423,21 +3702,34 @@
       <c r="AH23" s="33"/>
       <c r="AI23" s="33"/>
       <c r="AJ23" s="35">
-        <f t="shared" ref="AJ23:AJ24" si="3">SUM(F23:AI23)</f>
+        <f t="shared" ref="AJ23:AJ24" si="5">SUM(F23:AI23)</f>
         <v>10</v>
       </c>
       <c r="AK23" s="35">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="AL23" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM23" s="35"/>
+      <c r="AN23" s="35">
+        <v>37</v>
+      </c>
+      <c r="AO23" s="70">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="AP23" s="70">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="AL23" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM23" s="35"/>
-      <c r="AN23" s="35"/>
-    </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43">
       <c r="A24" s="11" t="s">
         <v>113</v>
       </c>
@@ -3494,21 +3786,34 @@
         <v>70</v>
       </c>
       <c r="AJ24" s="35">
+        <f t="shared" si="5"/>
+        <v>250</v>
+      </c>
+      <c r="AK24" s="35">
         <f t="shared" si="3"/>
-        <v>250</v>
-      </c>
-      <c r="AK24" s="35">
+        <v>100</v>
+      </c>
+      <c r="AL24" s="35">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="AM24" s="35"/>
+      <c r="AN24" s="35">
+        <v>59</v>
+      </c>
+      <c r="AO24" s="70">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="AP24" s="70">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="AL24" s="35">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="AM24" s="35"/>
-      <c r="AN24" s="35"/>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="AQ24" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43">
       <c r="A25" s="6" t="s">
         <v>116</v>
       </c>
@@ -3561,21 +3866,34 @@
         <v>95</v>
       </c>
       <c r="AJ25" s="35">
-        <f t="shared" ref="AJ25:AJ35" si="4">SUM(F25:AI25)</f>
+        <f t="shared" ref="AJ25:AJ35" si="6">SUM(F25:AI25)</f>
         <v>174</v>
       </c>
       <c r="AK25" s="35">
-        <f t="shared" ref="AK25:AK35" si="5">IF(AJ25&gt;100,AJ25-(AJ25-100),AJ25)</f>
+        <f t="shared" ref="AK25:AK35" si="7">IF(AJ25&gt;100,AJ25-(AJ25-100),AJ25)</f>
         <v>100</v>
       </c>
       <c r="AL25" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.4</v>
       </c>
       <c r="AM25" s="35"/>
-      <c r="AN25" s="35"/>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN25" s="35">
+        <v>47</v>
+      </c>
+      <c r="AO25" s="70">
+        <f t="shared" si="0"/>
+        <v>54.4</v>
+      </c>
+      <c r="AP25" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43">
       <c r="A26" s="22" t="s">
         <v>119</v>
       </c>
@@ -3632,21 +3950,34 @@
         <v>70</v>
       </c>
       <c r="AJ26" s="35">
+        <f t="shared" si="6"/>
+        <v>192</v>
+      </c>
+      <c r="AK26" s="35">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="AL26" s="35">
         <f t="shared" si="4"/>
-        <v>192</v>
-      </c>
-      <c r="AK26" s="35">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="AL26" s="35">
-        <f t="shared" si="2"/>
         <v>9.1999999999999993</v>
       </c>
       <c r="AM26" s="35"/>
-      <c r="AN26" s="35"/>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN26" s="35">
+        <v>53</v>
+      </c>
+      <c r="AO26" s="70">
+        <f t="shared" si="0"/>
+        <v>62.2</v>
+      </c>
+      <c r="AP26" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43">
       <c r="A27" s="22" t="s">
         <v>122</v>
       </c>
@@ -3699,21 +4030,34 @@
         <v>90</v>
       </c>
       <c r="AJ27" s="35">
+        <f t="shared" si="6"/>
+        <v>166</v>
+      </c>
+      <c r="AK27" s="35">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="AL27" s="35">
         <f t="shared" si="4"/>
-        <v>166</v>
-      </c>
-      <c r="AK27" s="35">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="AL27" s="35">
-        <f t="shared" si="2"/>
         <v>6.6</v>
       </c>
       <c r="AM27" s="35"/>
-      <c r="AN27" s="35"/>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN27" s="35">
+        <v>44</v>
+      </c>
+      <c r="AO27" s="70">
+        <f t="shared" si="0"/>
+        <v>50.6</v>
+      </c>
+      <c r="AP27" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43">
       <c r="A28" s="22" t="s">
         <v>174</v>
       </c>
@@ -3760,21 +4104,32 @@
       <c r="AH28" s="33"/>
       <c r="AI28" s="33"/>
       <c r="AJ28" s="35">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="AK28" s="35">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="AL28" s="35">
         <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="AK28" s="35">
-        <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="AL28" s="35">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM28" s="35"/>
       <c r="AN28" s="35"/>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO28" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP28" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43">
       <c r="A29" s="22" t="s">
         <v>125</v>
       </c>
@@ -3819,21 +4174,32 @@
       <c r="AH29" s="33"/>
       <c r="AI29" s="33"/>
       <c r="AJ29" s="35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AK29" s="35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL29" s="35">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AK29" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AL29" s="35">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM29" s="35"/>
       <c r="AN29" s="35"/>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO29" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP29" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43">
       <c r="A30" s="22" t="s">
         <v>177</v>
       </c>
@@ -3878,21 +4244,32 @@
       <c r="AH30" s="33"/>
       <c r="AI30" s="33"/>
       <c r="AJ30" s="35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AK30" s="35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL30" s="35">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AK30" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AL30" s="35">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM30" s="35"/>
       <c r="AN30" s="35"/>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO30" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP30" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43">
       <c r="A31" s="22" t="s">
         <v>128</v>
       </c>
@@ -3945,21 +4322,34 @@
         <v>95</v>
       </c>
       <c r="AJ31" s="35">
+        <f t="shared" si="6"/>
+        <v>174</v>
+      </c>
+      <c r="AK31" s="35">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="AL31" s="35">
         <f t="shared" si="4"/>
-        <v>174</v>
-      </c>
-      <c r="AK31" s="35">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="AL31" s="35">
-        <f t="shared" si="2"/>
         <v>7.4</v>
       </c>
       <c r="AM31" s="35"/>
-      <c r="AN31" s="35"/>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN31" s="35">
+        <v>60</v>
+      </c>
+      <c r="AO31" s="70">
+        <f t="shared" si="0"/>
+        <v>67.400000000000006</v>
+      </c>
+      <c r="AP31" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43">
       <c r="A32" s="22" t="s">
         <v>130</v>
       </c>
@@ -4012,21 +4402,34 @@
         <v>90</v>
       </c>
       <c r="AJ32" s="35">
+        <f t="shared" si="6"/>
+        <v>165</v>
+      </c>
+      <c r="AK32" s="35">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="AL32" s="35">
         <f t="shared" si="4"/>
-        <v>165</v>
-      </c>
-      <c r="AK32" s="35">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="AL32" s="35">
-        <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
       <c r="AM32" s="35"/>
-      <c r="AN32" s="35"/>
-    </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN32" s="35">
+        <v>24</v>
+      </c>
+      <c r="AO32" s="70">
+        <f t="shared" si="0"/>
+        <v>30.5</v>
+      </c>
+      <c r="AP32" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:43">
       <c r="A33" s="22" t="s">
         <v>133</v>
       </c>
@@ -4077,21 +4480,34 @@
         <v>95</v>
       </c>
       <c r="AJ33" s="35">
+        <f t="shared" si="6"/>
+        <v>134</v>
+      </c>
+      <c r="AK33" s="35">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="AL33" s="35">
         <f t="shared" si="4"/>
-        <v>134</v>
-      </c>
-      <c r="AK33" s="35">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="AL33" s="35">
-        <f t="shared" si="2"/>
         <v>3.4</v>
       </c>
       <c r="AM33" s="35"/>
-      <c r="AN33" s="35"/>
-    </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN33" s="35">
+        <v>64</v>
+      </c>
+      <c r="AO33" s="70">
+        <f t="shared" si="0"/>
+        <v>67.400000000000006</v>
+      </c>
+      <c r="AP33" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43">
       <c r="A34" s="22" t="s">
         <v>86</v>
       </c>
@@ -4146,21 +4562,34 @@
         <v>70</v>
       </c>
       <c r="AJ34" s="35">
+        <f t="shared" si="6"/>
+        <v>182</v>
+      </c>
+      <c r="AK34" s="35">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="AL34" s="35">
         <f t="shared" si="4"/>
-        <v>182</v>
-      </c>
-      <c r="AK34" s="35">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="AL34" s="35">
-        <f t="shared" si="2"/>
         <v>8.1999999999999993</v>
       </c>
       <c r="AM34" s="35"/>
-      <c r="AN34" s="35"/>
-    </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN34" s="35">
+        <v>51</v>
+      </c>
+      <c r="AO34" s="70">
+        <f t="shared" si="0"/>
+        <v>59.2</v>
+      </c>
+      <c r="AP34" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43">
       <c r="A35" s="22" t="s">
         <v>138</v>
       </c>
@@ -4211,21 +4640,34 @@
         <v>70</v>
       </c>
       <c r="AJ35" s="35">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="AK35" s="35">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="AL35" s="35">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="AK35" s="35">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="AL35" s="35">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AM35" s="35"/>
-      <c r="AN35" s="35"/>
-    </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN35" s="35">
+        <v>47</v>
+      </c>
+      <c r="AO35" s="70">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="AP35" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:43">
       <c r="A36" s="22"/>
       <c r="B36" s="23" t="s">
         <v>158</v>
@@ -4276,21 +4718,34 @@
         <v>70</v>
       </c>
       <c r="AJ36" s="35">
-        <f t="shared" ref="AJ36:AJ62" si="6">SUM(F36:AI36)</f>
+        <f t="shared" ref="AJ36:AJ62" si="8">SUM(F36:AI36)</f>
         <v>129</v>
       </c>
       <c r="AK36" s="35">
-        <f t="shared" ref="AK36:AK62" si="7">IF(AJ36&gt;100,AJ36-(AJ36-100),AJ36)</f>
+        <f t="shared" ref="AK36:AK62" si="9">IF(AJ36&gt;100,AJ36-(AJ36-100),AJ36)</f>
         <v>100</v>
       </c>
       <c r="AL36" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.9</v>
       </c>
       <c r="AM36" s="35"/>
-      <c r="AN36" s="35"/>
-    </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN36" s="35">
+        <v>28</v>
+      </c>
+      <c r="AO36" s="70">
+        <f t="shared" si="0"/>
+        <v>30.9</v>
+      </c>
+      <c r="AP36" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:43">
       <c r="A37" s="22" t="s">
         <v>57</v>
       </c>
@@ -4341,21 +4796,34 @@
         <v>100</v>
       </c>
       <c r="AJ37" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>160</v>
       </c>
       <c r="AK37" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="AL37" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AM37" s="35"/>
-      <c r="AN37" s="35"/>
-    </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN37" s="35">
+        <v>61</v>
+      </c>
+      <c r="AO37" s="70">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="AP37" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ37" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:43">
       <c r="A38" s="22" t="s">
         <v>141</v>
       </c>
@@ -4406,21 +4874,34 @@
       <c r="AH38" s="33"/>
       <c r="AI38" s="33"/>
       <c r="AJ38" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>96</v>
       </c>
       <c r="AK38" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>96</v>
       </c>
       <c r="AL38" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM38" s="35"/>
-      <c r="AN38" s="35"/>
-    </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN38" s="35">
+        <v>37</v>
+      </c>
+      <c r="AO38" s="70">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="AP38" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:43">
       <c r="A39" s="22" t="s">
         <v>144</v>
       </c>
@@ -4475,21 +4956,34 @@
       <c r="AH39" s="33"/>
       <c r="AI39" s="33"/>
       <c r="AJ39" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>117</v>
       </c>
       <c r="AK39" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="AL39" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.7</v>
       </c>
       <c r="AM39" s="35"/>
-      <c r="AN39" s="35"/>
-    </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN39" s="35">
+        <v>65</v>
+      </c>
+      <c r="AO39" s="70">
+        <f t="shared" si="0"/>
+        <v>66.7</v>
+      </c>
+      <c r="AP39" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:43">
       <c r="A40" s="22" t="s">
         <v>147</v>
       </c>
@@ -4542,21 +5036,34 @@
         <v>95</v>
       </c>
       <c r="AJ40" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>174</v>
       </c>
       <c r="AK40" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="AL40" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.4</v>
       </c>
       <c r="AM40" s="35"/>
-      <c r="AN40" s="35"/>
-    </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN40" s="35">
+        <v>58</v>
+      </c>
+      <c r="AO40" s="70">
+        <f t="shared" si="0"/>
+        <v>65.400000000000006</v>
+      </c>
+      <c r="AP40" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:43">
       <c r="A41" s="22" t="s">
         <v>150</v>
       </c>
@@ -4609,21 +5116,34 @@
         <v>70</v>
       </c>
       <c r="AJ41" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>145</v>
       </c>
       <c r="AK41" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="AL41" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
       <c r="AM41" s="35"/>
-      <c r="AN41" s="35"/>
-    </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN41" s="35">
+        <v>52</v>
+      </c>
+      <c r="AO41" s="70">
+        <f t="shared" si="0"/>
+        <v>56.5</v>
+      </c>
+      <c r="AP41" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ41" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:43">
       <c r="A42" s="22" t="s">
         <v>152</v>
       </c>
@@ -4678,21 +5198,34 @@
         <v>70</v>
       </c>
       <c r="AJ42" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>182</v>
       </c>
       <c r="AK42" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="AL42" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.1999999999999993</v>
       </c>
       <c r="AM42" s="35"/>
-      <c r="AN42" s="35"/>
-    </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN42" s="35">
+        <v>46</v>
+      </c>
+      <c r="AO42" s="70">
+        <f t="shared" si="0"/>
+        <v>54.2</v>
+      </c>
+      <c r="AP42" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ42" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:43">
       <c r="A43" s="22"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
@@ -4729,21 +5262,32 @@
       <c r="AH43" s="33"/>
       <c r="AI43" s="33"/>
       <c r="AJ43" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK43" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL43" s="35">
-        <f t="shared" ref="AL36:AL62" si="8">IF(AK43&gt;100,AK43-100,0)</f>
+        <f t="shared" ref="AL43:AL62" si="10">IF(AK43&gt;100,AK43-100,0)</f>
         <v>0</v>
       </c>
       <c r="AM43" s="35"/>
       <c r="AN43" s="35"/>
-    </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO43" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP43" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ43" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:43">
       <c r="A44" s="22"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
@@ -4780,21 +5324,32 @@
       <c r="AH44" s="33"/>
       <c r="AI44" s="33"/>
       <c r="AJ44" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK44" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL44" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AM44" s="35"/>
       <c r="AN44" s="35"/>
-    </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO44" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP44" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ44" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:43">
       <c r="A45" s="22"/>
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
@@ -4831,21 +5386,32 @@
       <c r="AH45" s="33"/>
       <c r="AI45" s="33"/>
       <c r="AJ45" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK45" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL45" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AM45" s="35"/>
       <c r="AN45" s="35"/>
-    </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO45" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP45" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ45" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:43">
       <c r="A46" s="22"/>
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
@@ -4882,21 +5448,32 @@
       <c r="AH46" s="33"/>
       <c r="AI46" s="33"/>
       <c r="AJ46" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK46" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL46" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AM46" s="35"/>
       <c r="AN46" s="35"/>
-    </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO46" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP46" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ46" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:43">
       <c r="A47" s="22"/>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
@@ -4933,21 +5510,32 @@
       <c r="AH47" s="33"/>
       <c r="AI47" s="33"/>
       <c r="AJ47" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK47" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL47" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AM47" s="35"/>
       <c r="AN47" s="35"/>
-    </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO47" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP47" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ47" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:43">
       <c r="A48" s="22"/>
       <c r="B48" s="23"/>
       <c r="C48" s="23"/>
@@ -4984,21 +5572,32 @@
       <c r="AH48" s="33"/>
       <c r="AI48" s="33"/>
       <c r="AJ48" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK48" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL48" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AM48" s="35"/>
       <c r="AN48" s="35"/>
-    </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO48" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP48" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ48" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:43">
       <c r="A49" s="22"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -5035,21 +5634,32 @@
       <c r="AH49" s="33"/>
       <c r="AI49" s="33"/>
       <c r="AJ49" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK49" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL49" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AM49" s="35"/>
       <c r="AN49" s="35"/>
-    </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO49" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP49" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ49" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:43">
       <c r="A50" s="22"/>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
@@ -5086,21 +5696,32 @@
       <c r="AH50" s="33"/>
       <c r="AI50" s="33"/>
       <c r="AJ50" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK50" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL50" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AM50" s="35"/>
       <c r="AN50" s="35"/>
-    </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO50" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP50" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ50" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:43">
       <c r="A51" s="22"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
@@ -5137,21 +5758,32 @@
       <c r="AH51" s="33"/>
       <c r="AI51" s="33"/>
       <c r="AJ51" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK51" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL51" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AM51" s="35"/>
       <c r="AN51" s="35"/>
-    </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO51" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP51" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ51" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:43">
       <c r="A52" s="22"/>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
@@ -5188,21 +5820,32 @@
       <c r="AH52" s="33"/>
       <c r="AI52" s="33"/>
       <c r="AJ52" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK52" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL52" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AM52" s="35"/>
       <c r="AN52" s="35"/>
-    </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO52" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP52" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ52" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:43">
       <c r="A53" s="22"/>
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
@@ -5239,21 +5882,32 @@
       <c r="AH53" s="33"/>
       <c r="AI53" s="33"/>
       <c r="AJ53" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK53" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL53" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AM53" s="35"/>
       <c r="AN53" s="35"/>
-    </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO53" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP53" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ53" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:43">
       <c r="A54" s="22"/>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
@@ -5290,21 +5944,32 @@
       <c r="AH54" s="33"/>
       <c r="AI54" s="33"/>
       <c r="AJ54" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK54" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL54" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AM54" s="35"/>
       <c r="AN54" s="35"/>
-    </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO54" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP54" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ54" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:43">
       <c r="A55" s="22"/>
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
@@ -5341,21 +6006,32 @@
       <c r="AH55" s="33"/>
       <c r="AI55" s="33"/>
       <c r="AJ55" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK55" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL55" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AM55" s="35"/>
       <c r="AN55" s="35"/>
-    </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO55" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP55" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ55" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:43">
       <c r="A56" s="22"/>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
@@ -5392,21 +6068,32 @@
       <c r="AH56" s="33"/>
       <c r="AI56" s="33"/>
       <c r="AJ56" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK56" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL56" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AM56" s="35"/>
       <c r="AN56" s="35"/>
-    </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO56" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP56" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ56" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:43">
       <c r="A57" s="22"/>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
@@ -5443,21 +6130,32 @@
       <c r="AH57" s="33"/>
       <c r="AI57" s="33"/>
       <c r="AJ57" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK57" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL57" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AM57" s="35"/>
       <c r="AN57" s="35"/>
-    </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO57" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP57" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ57" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:43">
       <c r="A58" s="22"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
@@ -5494,21 +6192,32 @@
       <c r="AH58" s="33"/>
       <c r="AI58" s="33"/>
       <c r="AJ58" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK58" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL58" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AM58" s="35"/>
       <c r="AN58" s="35"/>
-    </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO58" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP58" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ58" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:43">
       <c r="A59" s="22"/>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
@@ -5545,21 +6254,32 @@
       <c r="AH59" s="33"/>
       <c r="AI59" s="33"/>
       <c r="AJ59" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK59" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL59" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AM59" s="35"/>
       <c r="AN59" s="35"/>
-    </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO59" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP59" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ59" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:43">
       <c r="A60" s="22"/>
       <c r="B60" s="23"/>
       <c r="C60" s="23"/>
@@ -5596,21 +6316,21 @@
       <c r="AH60" s="33"/>
       <c r="AI60" s="33"/>
       <c r="AJ60" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK60" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL60" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AM60" s="35"/>
       <c r="AN60" s="35"/>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:43">
       <c r="A61" s="22"/>
       <c r="B61" s="23"/>
       <c r="C61" s="23"/>
@@ -5647,21 +6367,21 @@
       <c r="AH61" s="33"/>
       <c r="AI61" s="33"/>
       <c r="AJ61" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK61" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL61" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AM61" s="35"/>
       <c r="AN61" s="35"/>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:43">
       <c r="A62" s="22"/>
       <c r="B62" s="23"/>
       <c r="C62" s="23"/>
@@ -5698,15 +6418,15 @@
       <c r="AH62" s="33"/>
       <c r="AI62" s="33"/>
       <c r="AJ62" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK62" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL62" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AM62" s="35"/>
@@ -5823,11 +6543,11 @@
   <dimension ref="A1:AN62"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E38" sqref="E38"/>
+      <pane xSplit="5" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
@@ -5837,7 +6557,7 @@
     <col min="38" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" ht="15" customHeight="1">
       <c r="A1" s="56" t="s">
         <v>50</v>
       </c>
@@ -5889,7 +6609,7 @@
       <c r="AM1" s="62"/>
       <c r="AN1" s="62"/>
     </row>
-    <row r="2" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" ht="15">
       <c r="A2" s="13" t="s">
         <v>8</v>
       </c>
@@ -5969,7 +6689,7 @@
       <c r="AM2" s="37"/>
       <c r="AN2" s="37"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40">
       <c r="A3" s="2" t="s">
         <v>60</v>
       </c>
@@ -6029,7 +6749,7 @@
       <c r="AM3" s="40"/>
       <c r="AN3" s="40"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40">
       <c r="A4" s="6" t="s">
         <v>63</v>
       </c>
@@ -6091,7 +6811,7 @@
       <c r="AM4" s="40"/>
       <c r="AN4" s="40"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40">
       <c r="A5" s="11" t="s">
         <v>66</v>
       </c>
@@ -6153,7 +6873,7 @@
       <c r="AM5" s="40"/>
       <c r="AN5" s="40"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40">
       <c r="A6" s="6" t="s">
         <v>69</v>
       </c>
@@ -6213,7 +6933,7 @@
       <c r="AM6" s="40"/>
       <c r="AN6" s="40"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40">
       <c r="A7" s="6" t="s">
         <v>72</v>
       </c>
@@ -6265,7 +6985,7 @@
       <c r="AM7" s="40"/>
       <c r="AN7" s="40"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40">
       <c r="A8" s="6" t="s">
         <v>75</v>
       </c>
@@ -6327,7 +7047,7 @@
       <c r="AM8" s="40"/>
       <c r="AN8" s="40"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40">
       <c r="A9" s="6" t="s">
         <v>78</v>
       </c>
@@ -6385,7 +7105,7 @@
       <c r="AM9" s="40"/>
       <c r="AN9" s="40"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40">
       <c r="A10" s="6" t="s">
         <v>81</v>
       </c>
@@ -6445,7 +7165,7 @@
       <c r="AM10" s="40"/>
       <c r="AN10" s="40"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40">
       <c r="A11" s="6" t="s">
         <v>184</v>
       </c>
@@ -6505,7 +7225,7 @@
       <c r="AM11" s="40"/>
       <c r="AN11" s="40"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40">
       <c r="A12" s="6" t="s">
         <v>83</v>
       </c>
@@ -6565,7 +7285,7 @@
       <c r="AM12" s="40"/>
       <c r="AN12" s="40"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40">
       <c r="A13" s="6" t="s">
         <v>86</v>
       </c>
@@ -6623,7 +7343,7 @@
       <c r="AM13" s="40"/>
       <c r="AN13" s="40"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40">
       <c r="A14" s="6" t="s">
         <v>89</v>
       </c>
@@ -6673,7 +7393,7 @@
       <c r="AM14" s="40"/>
       <c r="AN14" s="40"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40">
       <c r="A15" s="6" t="s">
         <v>92</v>
       </c>
@@ -6735,7 +7455,7 @@
       <c r="AM15" s="40"/>
       <c r="AN15" s="40"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40">
       <c r="A16" s="22" t="s">
         <v>180</v>
       </c>
@@ -6797,7 +7517,7 @@
       <c r="AM16" s="40"/>
       <c r="AN16" s="40"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40">
       <c r="A17" s="6" t="s">
         <v>95</v>
       </c>
@@ -6859,7 +7579,7 @@
       <c r="AM17" s="40"/>
       <c r="AN17" s="40"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40">
       <c r="A18" s="6" t="s">
         <v>98</v>
       </c>
@@ -6921,7 +7641,7 @@
       <c r="AM18" s="40"/>
       <c r="AN18" s="40"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40">
       <c r="A19" s="6" t="s">
         <v>101</v>
       </c>
@@ -6981,7 +7701,7 @@
       <c r="AM19" s="40"/>
       <c r="AN19" s="40"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40">
       <c r="A20" s="6" t="s">
         <v>104</v>
       </c>
@@ -7039,7 +7759,7 @@
       <c r="AM20" s="40"/>
       <c r="AN20" s="40"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40">
       <c r="A21" s="6" t="s">
         <v>107</v>
       </c>
@@ -7099,7 +7819,7 @@
       <c r="AM21" s="40"/>
       <c r="AN21" s="40"/>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40">
       <c r="A22" s="22"/>
       <c r="B22" s="22" t="s">
         <v>188</v>
@@ -7151,7 +7871,7 @@
       <c r="AM22" s="40"/>
       <c r="AN22" s="40"/>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40">
       <c r="A23" s="6" t="s">
         <v>110</v>
       </c>
@@ -7209,7 +7929,7 @@
       <c r="AM23" s="40"/>
       <c r="AN23" s="40"/>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40">
       <c r="A24" s="11" t="s">
         <v>113</v>
       </c>
@@ -7271,7 +7991,7 @@
       <c r="AM24" s="40"/>
       <c r="AN24" s="40"/>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40">
       <c r="A25" s="6" t="s">
         <v>116</v>
       </c>
@@ -7333,7 +8053,7 @@
       <c r="AM25" s="40"/>
       <c r="AN25" s="40"/>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40">
       <c r="A26" s="22" t="s">
         <v>119</v>
       </c>
@@ -7397,7 +8117,7 @@
       <c r="AM26" s="40"/>
       <c r="AN26" s="40"/>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40">
       <c r="A27" s="22" t="s">
         <v>122</v>
       </c>
@@ -7459,7 +8179,7 @@
       <c r="AM27" s="40"/>
       <c r="AN27" s="40"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40">
       <c r="A28" s="22" t="s">
         <v>174</v>
       </c>
@@ -7511,7 +8231,7 @@
       <c r="AM28" s="40"/>
       <c r="AN28" s="40"/>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40">
       <c r="A29" s="22" t="s">
         <v>125</v>
       </c>
@@ -7563,7 +8283,7 @@
       <c r="AM29" s="40"/>
       <c r="AN29" s="40"/>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40">
       <c r="A30" s="22" t="s">
         <v>177</v>
       </c>
@@ -7617,7 +8337,7 @@
       <c r="AM30" s="40"/>
       <c r="AN30" s="40"/>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40">
       <c r="A31" s="22" t="s">
         <v>128</v>
       </c>
@@ -7679,7 +8399,7 @@
       <c r="AM31" s="40"/>
       <c r="AN31" s="40"/>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40">
       <c r="A32" s="22" t="s">
         <v>130</v>
       </c>
@@ -7739,7 +8459,7 @@
       <c r="AM32" s="40"/>
       <c r="AN32" s="40"/>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40">
       <c r="A33" s="22" t="s">
         <v>133</v>
       </c>
@@ -7801,7 +8521,7 @@
       <c r="AM33" s="40"/>
       <c r="AN33" s="40"/>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40">
       <c r="A34" s="22" t="s">
         <v>190</v>
       </c>
@@ -7863,7 +8583,7 @@
       <c r="AM34" s="40"/>
       <c r="AN34" s="40"/>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40">
       <c r="A35" s="22" t="s">
         <v>138</v>
       </c>
@@ -7919,7 +8639,7 @@
       <c r="AM35" s="40"/>
       <c r="AN35" s="40"/>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40">
       <c r="A36" s="22" t="s">
         <v>181</v>
       </c>
@@ -7979,7 +8699,7 @@
       <c r="AM36" s="40"/>
       <c r="AN36" s="40"/>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40">
       <c r="A37" s="22" t="s">
         <v>57</v>
       </c>
@@ -8041,7 +8761,7 @@
       <c r="AM37" s="40"/>
       <c r="AN37" s="40"/>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40">
       <c r="A38" s="22" t="s">
         <v>141</v>
       </c>
@@ -8101,7 +8821,7 @@
       <c r="AM38" s="40"/>
       <c r="AN38" s="40"/>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40">
       <c r="A39" s="22" t="s">
         <v>144</v>
       </c>
@@ -8163,7 +8883,7 @@
       <c r="AM39" s="40"/>
       <c r="AN39" s="40"/>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40">
       <c r="A40" s="22" t="s">
         <v>147</v>
       </c>
@@ -8225,7 +8945,7 @@
       <c r="AM40" s="40"/>
       <c r="AN40" s="40"/>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40">
       <c r="A41" s="22" t="s">
         <v>150</v>
       </c>
@@ -8287,7 +9007,7 @@
       <c r="AM41" s="40"/>
       <c r="AN41" s="40"/>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:40">
       <c r="A42" s="22" t="s">
         <v>152</v>
       </c>
@@ -8349,7 +9069,7 @@
       <c r="AM42" s="40"/>
       <c r="AN42" s="40"/>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:40">
       <c r="A43" s="22"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
@@ -8403,7 +9123,7 @@
       <c r="AM43" s="40"/>
       <c r="AN43" s="40"/>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:40">
       <c r="A44" s="22"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
@@ -8445,7 +9165,7 @@
       <c r="AM44" s="40"/>
       <c r="AN44" s="40"/>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:40">
       <c r="A45" s="22"/>
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
@@ -8487,7 +9207,7 @@
       <c r="AM45" s="40"/>
       <c r="AN45" s="40"/>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:40">
       <c r="A46" s="22"/>
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
@@ -8529,7 +9249,7 @@
       <c r="AM46" s="40"/>
       <c r="AN46" s="40"/>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:40">
       <c r="A47" s="22"/>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
@@ -8571,7 +9291,7 @@
       <c r="AM47" s="40"/>
       <c r="AN47" s="40"/>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:40">
       <c r="A48" s="22"/>
       <c r="B48" s="23"/>
       <c r="C48" s="23"/>
@@ -8613,7 +9333,7 @@
       <c r="AM48" s="40"/>
       <c r="AN48" s="40"/>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:40">
       <c r="A49" s="22"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -8655,7 +9375,7 @@
       <c r="AM49" s="40"/>
       <c r="AN49" s="40"/>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:40">
       <c r="A50" s="22"/>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
@@ -8697,7 +9417,7 @@
       <c r="AM50" s="40"/>
       <c r="AN50" s="40"/>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:40">
       <c r="A51" s="22"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
@@ -8739,7 +9459,7 @@
       <c r="AM51" s="40"/>
       <c r="AN51" s="40"/>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:40">
       <c r="A52" s="22"/>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
@@ -8781,7 +9501,7 @@
       <c r="AM52" s="40"/>
       <c r="AN52" s="40"/>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:40">
       <c r="A53" s="22"/>
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
@@ -8823,7 +9543,7 @@
       <c r="AM53" s="40"/>
       <c r="AN53" s="40"/>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:40">
       <c r="A54" s="22"/>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
@@ -8865,7 +9585,7 @@
       <c r="AM54" s="40"/>
       <c r="AN54" s="40"/>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:40">
       <c r="A55" s="22"/>
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
@@ -8907,7 +9627,7 @@
       <c r="AM55" s="40"/>
       <c r="AN55" s="40"/>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:40">
       <c r="A56" s="22"/>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
@@ -8949,7 +9669,7 @@
       <c r="AM56" s="40"/>
       <c r="AN56" s="40"/>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:40">
       <c r="A57" s="22"/>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
@@ -8991,7 +9711,7 @@
       <c r="AM57" s="40"/>
       <c r="AN57" s="40"/>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:40">
       <c r="A58" s="22"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
@@ -9033,7 +9753,7 @@
       <c r="AM58" s="40"/>
       <c r="AN58" s="40"/>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:40">
       <c r="A59" s="22"/>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
@@ -9075,7 +9795,7 @@
       <c r="AM59" s="40"/>
       <c r="AN59" s="40"/>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:40">
       <c r="A60" s="22"/>
       <c r="B60" s="23"/>
       <c r="C60" s="23"/>
@@ -9117,7 +9837,7 @@
       <c r="AM60" s="40"/>
       <c r="AN60" s="40"/>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:40">
       <c r="A61" s="22"/>
       <c r="B61" s="23"/>
       <c r="C61" s="23"/>
@@ -9159,7 +9879,7 @@
       <c r="AM61" s="40"/>
       <c r="AN61" s="40"/>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:40">
       <c r="A62" s="22"/>
       <c r="B62" s="23"/>
       <c r="C62" s="23"/>
@@ -9277,12 +9997,12 @@
       <selection sqref="A1:B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="2"/>
       <c r="B1" s="50"/>
       <c r="D1" s="2" t="s">
@@ -9292,7 +10012,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="53" t="s">
         <v>113</v>
       </c>
@@ -9306,7 +10026,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="11" t="s">
         <v>66</v>
       </c>
@@ -9320,7 +10040,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="22" t="s">
         <v>144</v>
       </c>
@@ -9334,7 +10054,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="22" t="s">
         <v>133</v>
       </c>
@@ -9346,7 +10066,7 @@
       </c>
       <c r="E5" s="50"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="22" t="s">
         <v>152</v>
       </c>
@@ -9360,7 +10080,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>116</v>
       </c>
@@ -9374,7 +10094,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="22" t="s">
         <v>119</v>
       </c>
@@ -9388,7 +10108,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="22" t="s">
         <v>86</v>
       </c>
@@ -9402,7 +10122,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="22" t="s">
         <v>128</v>
       </c>
@@ -9416,7 +10136,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="22" t="s">
         <v>141</v>
       </c>
@@ -9430,7 +10150,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="22" t="s">
         <v>57</v>
       </c>
@@ -9442,7 +10162,7 @@
       </c>
       <c r="E12" s="50"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
         <v>75</v>
       </c>
@@ -9456,7 +10176,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
         <v>63</v>
       </c>
@@ -9470,7 +10190,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
         <v>78</v>
       </c>
@@ -9484,7 +10204,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
         <v>92</v>
       </c>
@@ -9498,7 +10218,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="22" t="s">
         <v>180</v>
       </c>
@@ -9512,7 +10232,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="22" t="s">
         <v>150</v>
       </c>
@@ -9526,7 +10246,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="6" t="s">
         <v>60</v>
       </c>
@@ -9540,7 +10260,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="6" t="s">
         <v>69</v>
       </c>
@@ -9554,7 +10274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="6" t="s">
         <v>83</v>
       </c>
@@ -9568,7 +10288,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="6" t="s">
         <v>95</v>
       </c>
@@ -9582,7 +10302,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="6" t="s">
         <v>107</v>
       </c>
@@ -9596,7 +10316,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="22" t="s">
         <v>138</v>
       </c>
@@ -9610,7 +10330,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="22" t="s">
         <v>147</v>
       </c>
@@ -9622,7 +10342,7 @@
       </c>
       <c r="E25" s="50"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="22" t="s">
         <v>122</v>
       </c>
@@ -9634,7 +10354,7 @@
       </c>
       <c r="E26" s="50"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="22"/>
       <c r="B27" s="50">
         <v>25</v>
@@ -9644,7 +10364,7 @@
       </c>
       <c r="E27" s="50"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="6" t="s">
         <v>81</v>
       </c>
@@ -9658,7 +10378,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="6" t="s">
         <v>86</v>
       </c>
@@ -9672,7 +10392,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="6" t="s">
         <v>101</v>
       </c>
@@ -9686,7 +10406,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="6" t="s">
         <v>104</v>
       </c>
@@ -9700,7 +10420,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="6" t="s">
         <v>98</v>
       </c>
@@ -9714,7 +10434,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="22" t="s">
         <v>130</v>
       </c>
@@ -9728,7 +10448,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="22" t="s">
         <v>181</v>
       </c>
@@ -9742,7 +10462,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="6" t="s">
         <v>184</v>
       </c>
@@ -9756,7 +10476,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="6" t="s">
         <v>110</v>
       </c>
@@ -9770,7 +10490,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="6" t="s">
         <v>72</v>
       </c>
@@ -9782,7 +10502,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="6" t="s">
         <v>89</v>
       </c>
@@ -9794,7 +10514,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="22" t="s">
         <v>174</v>
       </c>
@@ -9806,7 +10526,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="22" t="s">
         <v>125</v>
       </c>
@@ -9816,7 +10536,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="22" t="s">
         <v>177</v>
       </c>
